--- a/Standard.xlsx
+++ b/Standard.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26227"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Estudos\PosCD\Projeto Aplicado\Dados Coletados\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41216DD1-5BAC-42A7-AFC8-E62EA1070E2E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A63B1F5-A475-498D-B059-0E05BBD6F745}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-1155" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="79">
   <si>
     <t>Playing Time</t>
   </si>
@@ -48,9 +48,6 @@
     <t>Progression</t>
   </si>
   <si>
-    <t>Per 90 Minutes</t>
-  </si>
-  <si>
     <t>Player</t>
   </si>
   <si>
@@ -120,12 +117,6 @@
     <t>PrgR</t>
   </si>
   <si>
-    <t>G+A-PK</t>
-  </si>
-  <si>
-    <t>xG+xAG</t>
-  </si>
-  <si>
     <t>GK</t>
   </si>
   <si>
@@ -253,9 +244,6 @@
   </si>
   <si>
     <t>Pedro Rangel</t>
-  </si>
-  <si>
-    <t>Squad Total</t>
   </si>
   <si>
     <t>Fabio</t>
@@ -293,7 +281,7 @@
     <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
-  <fonts count="18" x14ac:knownFonts="1">
+  <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -424,6 +412,14 @@
     <font>
       <sz val="11"/>
       <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -789,7 +785,7 @@
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -825,6 +821,7 @@
     <xf numFmtId="0" fontId="16" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="43">
     <cellStyle name="20% - Ênfase1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1181,10 +1178,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AH41"/>
+  <dimension ref="A1:AH42"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="Z32" sqref="Z32"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="AB25" sqref="AB25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1251,9 +1248,7 @@
       </c>
       <c r="V1" s="9"/>
       <c r="W1" s="9"/>
-      <c r="X1" s="9" t="s">
-        <v>4</v>
-      </c>
+      <c r="X1" s="9"/>
       <c r="Y1" s="9"/>
       <c r="Z1" s="9"/>
       <c r="AA1" s="9"/>
@@ -1265,117 +1260,97 @@
       <c r="AG1" s="9"/>
       <c r="AH1" s="1"/>
     </row>
-    <row r="2" spans="1:34" ht="30" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="C2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="D2" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="E2" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="F2" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="G2" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="H2" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="H2" s="1" t="s">
+      <c r="I2" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="I2" s="1" t="s">
+      <c r="J2" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="J2" s="1" t="s">
+      <c r="K2" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="K2" s="1" t="s">
+      <c r="L2" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="L2" s="1" t="s">
+      <c r="M2" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="M2" s="1" t="s">
+      <c r="N2" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="N2" s="1" t="s">
+      <c r="O2" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="O2" s="1" t="s">
+      <c r="P2" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="P2" s="1" t="s">
+      <c r="Q2" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="Q2" s="5" t="s">
+      <c r="R2" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="R2" s="5" t="s">
+      <c r="S2" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="S2" s="1" t="s">
+      <c r="T2" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="T2" s="1" t="s">
+      <c r="U2" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="U2" s="1" t="s">
+      <c r="V2" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="V2" s="1" t="s">
+      <c r="W2" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="W2" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="X2" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="Y2" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="Z2" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="AA2" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="AB2" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="AC2" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="AD2" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="AE2" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="AF2" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="AG2" s="1" t="s">
-        <v>24</v>
-      </c>
+      <c r="X2" s="1"/>
+      <c r="Y2" s="1"/>
+      <c r="Z2" s="1"/>
+      <c r="AA2" s="1"/>
+      <c r="AB2" s="1"/>
+      <c r="AC2" s="1"/>
+      <c r="AD2" s="1"/>
+      <c r="AE2" s="1"/>
+      <c r="AF2" s="1"/>
+      <c r="AG2" s="1"/>
       <c r="AH2" s="1"/>
     </row>
     <row r="3" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="D3" s="2">
         <v>41</v>
@@ -1440,57 +1415,27 @@
       <c r="W3" s="2">
         <v>0</v>
       </c>
-      <c r="X3" s="3">
-        <f>I3/$H3</f>
-        <v>0</v>
-      </c>
-      <c r="Y3" s="3">
-        <f>J3/$H3</f>
-        <v>0</v>
-      </c>
-      <c r="Z3" s="3">
-        <f>K3/$H3</f>
-        <v>0</v>
-      </c>
-      <c r="AA3" s="3">
-        <f>L3/$H3</f>
-        <v>0</v>
-      </c>
-      <c r="AB3" s="3">
-        <f>(K3-M3)/$H3</f>
-        <v>0</v>
-      </c>
-      <c r="AC3" s="3">
-        <f>Q3/$H3</f>
-        <v>0</v>
-      </c>
-      <c r="AD3" s="3">
-        <f>S3/$H3</f>
-        <v>0</v>
-      </c>
-      <c r="AE3" s="8">
-        <f>(Q3+S3)/$H3</f>
-        <v>0</v>
-      </c>
-      <c r="AF3" s="3">
-        <f>R3/$H3</f>
-        <v>0</v>
-      </c>
-      <c r="AG3" s="3">
-        <f>T3/$H3</f>
-        <v>0</v>
-      </c>
+      <c r="X3" s="3"/>
+      <c r="Y3" s="3"/>
+      <c r="Z3" s="3"/>
+      <c r="AA3" s="3"/>
+      <c r="AB3" s="3"/>
+      <c r="AC3" s="3"/>
+      <c r="AD3" s="3"/>
+      <c r="AE3" s="8"/>
+      <c r="AF3" s="3"/>
+      <c r="AG3" s="3"/>
       <c r="AH3" s="2"/>
     </row>
     <row r="4" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="B4" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="B4" s="2" t="s">
-        <v>79</v>
-      </c>
       <c r="C4" s="2" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D4" s="2">
         <v>33</v>
@@ -1555,57 +1500,27 @@
       <c r="W4" s="2">
         <v>126</v>
       </c>
-      <c r="X4" s="3">
-        <f t="shared" ref="X4:X34" si="3">I4/$H4</f>
-        <v>0.75949367088607589</v>
-      </c>
-      <c r="Y4" s="3">
-        <f t="shared" ref="Y4:Y34" si="4">J4/$H4</f>
-        <v>8.7633885102239531E-2</v>
-      </c>
-      <c r="Z4" s="3">
-        <f t="shared" ref="Z4:Z34" si="5">K4/$H4</f>
-        <v>0.84712755598831546</v>
-      </c>
-      <c r="AA4" s="3">
-        <f t="shared" ref="AA4:AA34" si="6">L4/$H4</f>
-        <v>0.75949367088607589</v>
-      </c>
-      <c r="AB4" s="3">
-        <f>(K4-M4)/$H4</f>
-        <v>0.84712755598831546</v>
-      </c>
-      <c r="AC4" s="3">
-        <f>Q4/$H4</f>
-        <v>0.53748782862706912</v>
-      </c>
-      <c r="AD4" s="3">
-        <f>S4/$H4</f>
-        <v>4.0895813047711775E-2</v>
-      </c>
-      <c r="AE4" s="8">
-        <f>(Q4+S4)/$H4</f>
-        <v>0.57838364167478085</v>
-      </c>
-      <c r="AF4" s="3">
-        <f t="shared" ref="AF4:AF34" si="7">R4/$H4</f>
-        <v>0.53748782862706912</v>
-      </c>
-      <c r="AG4" s="3">
-        <f t="shared" ref="AG4:AG34" si="8">T4/$H4</f>
-        <v>0.57838364167478085</v>
-      </c>
+      <c r="X4" s="3"/>
+      <c r="Y4" s="3"/>
+      <c r="Z4" s="3"/>
+      <c r="AA4" s="3"/>
+      <c r="AB4" s="3"/>
+      <c r="AC4" s="3"/>
+      <c r="AD4" s="3"/>
+      <c r="AE4" s="8"/>
+      <c r="AF4" s="3"/>
+      <c r="AG4" s="3"/>
       <c r="AH4" s="2"/>
     </row>
     <row r="5" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="D5" s="2">
         <v>20</v>
@@ -1670,57 +1585,27 @@
       <c r="W5" s="2">
         <v>36</v>
       </c>
-      <c r="X5" s="3">
-        <f t="shared" si="3"/>
-        <v>2.9850746268656716E-2</v>
-      </c>
-      <c r="Y5" s="3">
-        <f t="shared" si="4"/>
-        <v>2.9850746268656716E-2</v>
-      </c>
-      <c r="Z5" s="3">
-        <f t="shared" si="5"/>
-        <v>5.9701492537313432E-2</v>
-      </c>
-      <c r="AA5" s="3">
-        <f t="shared" si="6"/>
-        <v>2.9850746268656716E-2</v>
-      </c>
-      <c r="AB5" s="3">
-        <f t="shared" ref="AB5:AB34" si="9">(K5-M5)/$H5</f>
-        <v>5.9701492537313432E-2</v>
-      </c>
-      <c r="AC5" s="3">
-        <f t="shared" ref="AC5:AC34" si="10">Q5/$H5</f>
-        <v>2.9850746268656716E-2</v>
-      </c>
-      <c r="AD5" s="3">
-        <f t="shared" ref="AD5:AD34" si="11">S5/$H5</f>
-        <v>5.0746268656716415E-2</v>
-      </c>
-      <c r="AE5" s="8">
-        <f t="shared" ref="AE5:AE34" si="12">(Q5+S5)/$H5</f>
-        <v>8.0597014925373134E-2</v>
-      </c>
-      <c r="AF5" s="3">
-        <f t="shared" si="7"/>
-        <v>2.9850746268656716E-2</v>
-      </c>
-      <c r="AG5" s="3">
-        <f t="shared" si="8"/>
-        <v>8.0597014925373134E-2</v>
-      </c>
+      <c r="X5" s="3"/>
+      <c r="Y5" s="3"/>
+      <c r="Z5" s="3"/>
+      <c r="AA5" s="3"/>
+      <c r="AB5" s="3"/>
+      <c r="AC5" s="3"/>
+      <c r="AD5" s="3"/>
+      <c r="AE5" s="8"/>
+      <c r="AF5" s="3"/>
+      <c r="AG5" s="3"/>
       <c r="AH5" s="2"/>
     </row>
     <row r="6" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="D6" s="2">
         <v>32</v>
@@ -1785,57 +1670,27 @@
       <c r="W6" s="2">
         <v>111</v>
       </c>
-      <c r="X6" s="3">
-        <f t="shared" si="3"/>
-        <v>0.18167137666532096</v>
-      </c>
-      <c r="Y6" s="3">
-        <f t="shared" si="4"/>
-        <v>0.18167137666532096</v>
-      </c>
-      <c r="Z6" s="3">
-        <f t="shared" si="5"/>
-        <v>0.36334275333064192</v>
-      </c>
-      <c r="AA6" s="3">
-        <f t="shared" si="6"/>
-        <v>7.2668550666128387E-2</v>
-      </c>
-      <c r="AB6" s="3">
-        <f t="shared" si="9"/>
-        <v>0.25433992733144933</v>
-      </c>
-      <c r="AC6" s="3">
-        <f t="shared" si="10"/>
-        <v>0.14170367379895035</v>
-      </c>
-      <c r="AD6" s="3">
-        <f t="shared" si="11"/>
-        <v>0.17440452159870812</v>
-      </c>
-      <c r="AE6" s="8">
-        <f t="shared" si="12"/>
-        <v>0.31610819539765844</v>
-      </c>
-      <c r="AF6" s="3">
-        <f t="shared" si="7"/>
-        <v>5.4501412999596287E-2</v>
-      </c>
-      <c r="AG6" s="3">
-        <f t="shared" si="8"/>
-        <v>0.22890593459830438</v>
-      </c>
+      <c r="X6" s="3"/>
+      <c r="Y6" s="3"/>
+      <c r="Z6" s="3"/>
+      <c r="AA6" s="3"/>
+      <c r="AB6" s="3"/>
+      <c r="AC6" s="3"/>
+      <c r="AD6" s="3"/>
+      <c r="AE6" s="8"/>
+      <c r="AF6" s="3"/>
+      <c r="AG6" s="3"/>
       <c r="AH6" s="2"/>
     </row>
     <row r="7" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="D7" s="2">
         <v>31</v>
@@ -1900,57 +1755,27 @@
       <c r="W7" s="2">
         <v>138</v>
       </c>
-      <c r="X7" s="3">
-        <f t="shared" si="3"/>
-        <v>6.3694267515923567E-2</v>
-      </c>
-      <c r="Y7" s="3">
-        <f t="shared" si="4"/>
-        <v>6.3694267515923567E-2</v>
-      </c>
-      <c r="Z7" s="3">
-        <f t="shared" si="5"/>
-        <v>0.12738853503184713</v>
-      </c>
-      <c r="AA7" s="3">
-        <f t="shared" si="6"/>
-        <v>6.3694267515923567E-2</v>
-      </c>
-      <c r="AB7" s="3">
-        <f t="shared" si="9"/>
-        <v>0.12738853503184713</v>
-      </c>
-      <c r="AC7" s="3">
-        <f t="shared" si="10"/>
-        <v>5.4140127388535034E-2</v>
-      </c>
-      <c r="AD7" s="3">
-        <f t="shared" si="11"/>
-        <v>0.12738853503184713</v>
-      </c>
-      <c r="AE7" s="8">
-        <f t="shared" si="12"/>
-        <v>0.18152866242038218</v>
-      </c>
-      <c r="AF7" s="3">
-        <f t="shared" si="7"/>
-        <v>5.4140127388535034E-2</v>
-      </c>
-      <c r="AG7" s="3">
-        <f t="shared" si="8"/>
-        <v>0.18152866242038218</v>
-      </c>
+      <c r="X7" s="3"/>
+      <c r="Y7" s="3"/>
+      <c r="Z7" s="3"/>
+      <c r="AA7" s="3"/>
+      <c r="AB7" s="3"/>
+      <c r="AC7" s="3"/>
+      <c r="AD7" s="3"/>
+      <c r="AE7" s="8"/>
+      <c r="AF7" s="3"/>
+      <c r="AG7" s="3"/>
       <c r="AH7" s="2"/>
     </row>
     <row r="8" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="D8" s="2">
         <v>24</v>
@@ -2015,57 +1840,27 @@
       <c r="W8" s="2">
         <v>266</v>
       </c>
-      <c r="X8" s="3">
-        <f t="shared" si="3"/>
-        <v>0.23657529102515959</v>
-      </c>
-      <c r="Y8" s="3">
-        <f t="shared" si="4"/>
-        <v>0.33796470146451368</v>
-      </c>
-      <c r="Z8" s="3">
-        <f t="shared" si="5"/>
-        <v>0.57453999248967336</v>
-      </c>
-      <c r="AA8" s="3">
-        <f t="shared" si="6"/>
-        <v>0.20277882087870822</v>
-      </c>
-      <c r="AB8" s="3">
-        <f t="shared" si="9"/>
-        <v>0.54074352234322198</v>
-      </c>
-      <c r="AC8" s="3">
-        <f t="shared" si="10"/>
-        <v>0.11490799849793466</v>
-      </c>
-      <c r="AD8" s="3">
-        <f t="shared" si="11"/>
-        <v>0.23995493803980472</v>
-      </c>
-      <c r="AE8" s="8">
-        <f t="shared" si="12"/>
-        <v>0.35486293653773937</v>
-      </c>
-      <c r="AF8" s="3">
-        <f t="shared" si="7"/>
-        <v>9.1250469395418712E-2</v>
-      </c>
-      <c r="AG8" s="3">
-        <f t="shared" si="8"/>
-        <v>0.33120540743522348</v>
-      </c>
+      <c r="X8" s="3"/>
+      <c r="Y8" s="3"/>
+      <c r="Z8" s="3"/>
+      <c r="AA8" s="3"/>
+      <c r="AB8" s="3"/>
+      <c r="AC8" s="3"/>
+      <c r="AD8" s="3"/>
+      <c r="AE8" s="8"/>
+      <c r="AF8" s="3"/>
+      <c r="AG8" s="3"/>
       <c r="AH8" s="2"/>
     </row>
     <row r="9" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="D9" s="2">
         <v>31</v>
@@ -2130,57 +1925,27 @@
       <c r="W9" s="2">
         <v>11</v>
       </c>
-      <c r="X9" s="3">
-        <f t="shared" si="3"/>
-        <v>0.14705882352941177</v>
-      </c>
-      <c r="Y9" s="3">
-        <f t="shared" si="4"/>
-        <v>3.6764705882352942E-2</v>
-      </c>
-      <c r="Z9" s="3">
-        <f t="shared" si="5"/>
-        <v>0.18382352941176472</v>
-      </c>
-      <c r="AA9" s="3">
-        <f t="shared" si="6"/>
-        <v>0.14705882352941177</v>
-      </c>
-      <c r="AB9" s="3">
-        <f t="shared" si="9"/>
-        <v>0.18382352941176472</v>
-      </c>
-      <c r="AC9" s="3">
-        <f t="shared" si="10"/>
-        <v>5.8823529411764712E-2</v>
-      </c>
-      <c r="AD9" s="3">
-        <f t="shared" si="11"/>
-        <v>4.0441176470588237E-2</v>
-      </c>
-      <c r="AE9" s="8">
-        <f t="shared" si="12"/>
-        <v>9.9264705882352949E-2</v>
-      </c>
-      <c r="AF9" s="3">
-        <f t="shared" si="7"/>
-        <v>5.8823529411764712E-2</v>
-      </c>
-      <c r="AG9" s="3">
-        <f t="shared" si="8"/>
-        <v>9.9264705882352949E-2</v>
-      </c>
+      <c r="X9" s="3"/>
+      <c r="Y9" s="3"/>
+      <c r="Z9" s="3"/>
+      <c r="AA9" s="3"/>
+      <c r="AB9" s="3"/>
+      <c r="AC9" s="3"/>
+      <c r="AD9" s="3"/>
+      <c r="AE9" s="8"/>
+      <c r="AF9" s="3"/>
+      <c r="AG9" s="3"/>
       <c r="AH9" s="2"/>
     </row>
     <row r="10" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="D10" s="2">
         <v>24</v>
@@ -2245,57 +2010,27 @@
       <c r="W10" s="2">
         <v>2</v>
       </c>
-      <c r="X10" s="3">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="Y10" s="3">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="Z10" s="3">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="AA10" s="3">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="AB10" s="3">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="AC10" s="3">
-        <f t="shared" si="10"/>
-        <v>3.2258064516129031E-2</v>
-      </c>
-      <c r="AD10" s="3">
-        <f t="shared" si="11"/>
-        <v>2.1505376344086023E-2</v>
-      </c>
-      <c r="AE10" s="8">
-        <f t="shared" si="12"/>
-        <v>5.3763440860215055E-2</v>
-      </c>
-      <c r="AF10" s="3">
-        <f t="shared" si="7"/>
-        <v>3.2258064516129031E-2</v>
-      </c>
-      <c r="AG10" s="3">
-        <f t="shared" si="8"/>
-        <v>5.3763440860215055E-2</v>
-      </c>
+      <c r="X10" s="3"/>
+      <c r="Y10" s="3"/>
+      <c r="Z10" s="3"/>
+      <c r="AA10" s="3"/>
+      <c r="AB10" s="3"/>
+      <c r="AC10" s="3"/>
+      <c r="AD10" s="3"/>
+      <c r="AE10" s="8"/>
+      <c r="AF10" s="3"/>
+      <c r="AG10" s="3"/>
       <c r="AH10" s="2"/>
     </row>
     <row r="11" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="D11" s="2">
         <v>20</v>
@@ -2360,57 +2095,27 @@
       <c r="W11" s="2">
         <v>64</v>
       </c>
-      <c r="X11" s="3">
-        <f t="shared" si="3"/>
-        <v>5.5589870290302663E-2</v>
-      </c>
-      <c r="Y11" s="3">
-        <f t="shared" si="4"/>
-        <v>0.166769610870908</v>
-      </c>
-      <c r="Z11" s="3">
-        <f t="shared" si="5"/>
-        <v>0.22235948116121065</v>
-      </c>
-      <c r="AA11" s="3">
-        <f t="shared" si="6"/>
-        <v>5.5589870290302663E-2</v>
-      </c>
-      <c r="AB11" s="3">
-        <f t="shared" si="9"/>
-        <v>0.22235948116121065</v>
-      </c>
-      <c r="AC11" s="3">
-        <f t="shared" si="10"/>
-        <v>8.8943792464484264E-2</v>
-      </c>
-      <c r="AD11" s="3">
-        <f t="shared" si="11"/>
-        <v>0.12229771463866586</v>
-      </c>
-      <c r="AE11" s="8">
-        <f t="shared" si="12"/>
-        <v>0.21124150710315012</v>
-      </c>
-      <c r="AF11" s="3">
-        <f t="shared" si="7"/>
-        <v>8.8943792464484264E-2</v>
-      </c>
-      <c r="AG11" s="3">
-        <f t="shared" si="8"/>
-        <v>0.21124150710315012</v>
-      </c>
+      <c r="X11" s="3"/>
+      <c r="Y11" s="3"/>
+      <c r="Z11" s="3"/>
+      <c r="AA11" s="3"/>
+      <c r="AB11" s="3"/>
+      <c r="AC11" s="3"/>
+      <c r="AD11" s="3"/>
+      <c r="AE11" s="8"/>
+      <c r="AF11" s="3"/>
+      <c r="AG11" s="3"/>
       <c r="AH11" s="2"/>
     </row>
     <row r="12" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="D12" s="2">
         <v>23</v>
@@ -2475,57 +2180,27 @@
       <c r="W12" s="2">
         <v>129</v>
       </c>
-      <c r="X12" s="3">
-        <f t="shared" si="3"/>
-        <v>5.593536357986327E-2</v>
-      </c>
-      <c r="Y12" s="3">
-        <f t="shared" si="4"/>
-        <v>0.16780609073958982</v>
-      </c>
-      <c r="Z12" s="3">
-        <f t="shared" si="5"/>
-        <v>0.22374145431945308</v>
-      </c>
-      <c r="AA12" s="3">
-        <f t="shared" si="6"/>
-        <v>5.593536357986327E-2</v>
-      </c>
-      <c r="AB12" s="3">
-        <f t="shared" si="9"/>
-        <v>0.22374145431945308</v>
-      </c>
-      <c r="AC12" s="3">
-        <f t="shared" si="10"/>
-        <v>0.12305779987569922</v>
-      </c>
-      <c r="AD12" s="3">
-        <f t="shared" si="11"/>
-        <v>0.11187072715972654</v>
-      </c>
-      <c r="AE12" s="8">
-        <f t="shared" si="12"/>
-        <v>0.23492852703542577</v>
-      </c>
-      <c r="AF12" s="3">
-        <f t="shared" si="7"/>
-        <v>0.12305779987569922</v>
-      </c>
-      <c r="AG12" s="3">
-        <f t="shared" si="8"/>
-        <v>0.23492852703542577</v>
-      </c>
+      <c r="X12" s="3"/>
+      <c r="Y12" s="3"/>
+      <c r="Z12" s="3"/>
+      <c r="AA12" s="3"/>
+      <c r="AB12" s="3"/>
+      <c r="AC12" s="3"/>
+      <c r="AD12" s="3"/>
+      <c r="AE12" s="8"/>
+      <c r="AF12" s="3"/>
+      <c r="AG12" s="3"/>
       <c r="AH12" s="2"/>
     </row>
     <row r="13" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="D13" s="2">
         <v>18</v>
@@ -2590,57 +2265,27 @@
       <c r="W13" s="2">
         <v>175</v>
       </c>
-      <c r="X13" s="3">
-        <f t="shared" si="3"/>
-        <v>0.16832917705735662</v>
-      </c>
-      <c r="Y13" s="3">
-        <f t="shared" si="4"/>
-        <v>0.28054862842892769</v>
-      </c>
-      <c r="Z13" s="3">
-        <f t="shared" si="5"/>
-        <v>0.44887780548628425</v>
-      </c>
-      <c r="AA13" s="3">
-        <f t="shared" si="6"/>
-        <v>0.16832917705735662</v>
-      </c>
-      <c r="AB13" s="3">
-        <f t="shared" si="9"/>
-        <v>0.44887780548628425</v>
-      </c>
-      <c r="AC13" s="3">
-        <f t="shared" si="10"/>
-        <v>0.20760598503740649</v>
-      </c>
-      <c r="AD13" s="3">
-        <f t="shared" si="11"/>
-        <v>0.16832917705735662</v>
-      </c>
-      <c r="AE13" s="8">
-        <f t="shared" si="12"/>
-        <v>0.37593516209476308</v>
-      </c>
-      <c r="AF13" s="3">
-        <f t="shared" si="7"/>
-        <v>0.20760598503740649</v>
-      </c>
-      <c r="AG13" s="3">
-        <f t="shared" si="8"/>
-        <v>0.37593516209476308</v>
-      </c>
+      <c r="X13" s="3"/>
+      <c r="Y13" s="3"/>
+      <c r="Z13" s="3"/>
+      <c r="AA13" s="3"/>
+      <c r="AB13" s="3"/>
+      <c r="AC13" s="3"/>
+      <c r="AD13" s="3"/>
+      <c r="AE13" s="8"/>
+      <c r="AF13" s="3"/>
+      <c r="AG13" s="3"/>
       <c r="AH13" s="2"/>
     </row>
     <row r="14" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="D14" s="2">
         <v>26</v>
@@ -2705,57 +2350,27 @@
       <c r="W14" s="2">
         <v>76</v>
       </c>
-      <c r="X14" s="3">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="Y14" s="3">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="Z14" s="3">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="AA14" s="3">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="AB14" s="3">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="AC14" s="3">
-        <f t="shared" si="10"/>
-        <v>0.15915119363395225</v>
-      </c>
-      <c r="AD14" s="3">
-        <f t="shared" si="11"/>
-        <v>0.11140583554376657</v>
-      </c>
-      <c r="AE14" s="8">
-        <f t="shared" si="12"/>
-        <v>0.27055702917771884</v>
-      </c>
-      <c r="AF14" s="3">
-        <f t="shared" si="7"/>
-        <v>0.15915119363395225</v>
-      </c>
-      <c r="AG14" s="3">
-        <f t="shared" si="8"/>
-        <v>0.27055702917771884</v>
-      </c>
+      <c r="X14" s="3"/>
+      <c r="Y14" s="3"/>
+      <c r="Z14" s="3"/>
+      <c r="AA14" s="3"/>
+      <c r="AB14" s="3"/>
+      <c r="AC14" s="3"/>
+      <c r="AD14" s="3"/>
+      <c r="AE14" s="8"/>
+      <c r="AF14" s="3"/>
+      <c r="AG14" s="3"/>
       <c r="AH14" s="2"/>
     </row>
     <row r="15" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="D15" s="2">
         <v>21</v>
@@ -2820,57 +2435,27 @@
       <c r="W15" s="2">
         <v>102</v>
       </c>
-      <c r="X15" s="3">
-        <f t="shared" si="3"/>
-        <v>0.17077798861480076</v>
-      </c>
-      <c r="Y15" s="3">
-        <f t="shared" si="4"/>
-        <v>0.25616698292220114</v>
-      </c>
-      <c r="Z15" s="3">
-        <f t="shared" si="5"/>
-        <v>0.42694497153700195</v>
-      </c>
-      <c r="AA15" s="3">
-        <f t="shared" si="6"/>
-        <v>0.17077798861480076</v>
-      </c>
-      <c r="AB15" s="3">
-        <f t="shared" si="9"/>
-        <v>0.42694497153700195</v>
-      </c>
-      <c r="AC15" s="3">
-        <f t="shared" si="10"/>
-        <v>0.17077798861480076</v>
-      </c>
-      <c r="AD15" s="3">
-        <f t="shared" si="11"/>
-        <v>0.18785578747628087</v>
-      </c>
-      <c r="AE15" s="8">
-        <f t="shared" si="12"/>
-        <v>0.35863377609108166</v>
-      </c>
-      <c r="AF15" s="3">
-        <f t="shared" si="7"/>
-        <v>0.17077798861480076</v>
-      </c>
-      <c r="AG15" s="3">
-        <f t="shared" si="8"/>
-        <v>0.35863377609108166</v>
-      </c>
+      <c r="X15" s="3"/>
+      <c r="Y15" s="3"/>
+      <c r="Z15" s="3"/>
+      <c r="AA15" s="3"/>
+      <c r="AB15" s="3"/>
+      <c r="AC15" s="3"/>
+      <c r="AD15" s="3"/>
+      <c r="AE15" s="8"/>
+      <c r="AF15" s="3"/>
+      <c r="AG15" s="3"/>
       <c r="AH15" s="2"/>
     </row>
     <row r="16" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="D16" s="2">
         <v>23</v>
@@ -2935,57 +2520,27 @@
       <c r="W16" s="2">
         <v>40</v>
       </c>
-      <c r="X16" s="3">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="Y16" s="3">
-        <f t="shared" si="4"/>
-        <v>1.6513761467889909</v>
-      </c>
-      <c r="Z16" s="3">
-        <f t="shared" si="5"/>
-        <v>1.6513761467889909</v>
-      </c>
-      <c r="AA16" s="3">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="AB16" s="3">
-        <f t="shared" si="9"/>
-        <v>1.6513761467889909</v>
-      </c>
-      <c r="AC16" s="3">
-        <f t="shared" si="10"/>
-        <v>0.33027522935779818</v>
-      </c>
-      <c r="AD16" s="3">
-        <f t="shared" si="11"/>
-        <v>0.90825688073394506</v>
-      </c>
-      <c r="AE16" s="8">
-        <f t="shared" si="12"/>
-        <v>1.2385321100917432</v>
-      </c>
-      <c r="AF16" s="3">
-        <f t="shared" si="7"/>
-        <v>0.33027522935779818</v>
-      </c>
-      <c r="AG16" s="3">
-        <f t="shared" si="8"/>
-        <v>1.2385321100917432</v>
-      </c>
+      <c r="X16" s="3"/>
+      <c r="Y16" s="3"/>
+      <c r="Z16" s="3"/>
+      <c r="AA16" s="3"/>
+      <c r="AB16" s="3"/>
+      <c r="AC16" s="3"/>
+      <c r="AD16" s="3"/>
+      <c r="AE16" s="8"/>
+      <c r="AF16" s="3"/>
+      <c r="AG16" s="3"/>
       <c r="AH16" s="2"/>
     </row>
     <row r="17" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="D17" s="2">
         <v>34</v>
@@ -3050,57 +2605,27 @@
       <c r="W17" s="2">
         <v>1</v>
       </c>
-      <c r="X17" s="3">
-        <f t="shared" si="3"/>
-        <v>0.1271186440677966</v>
-      </c>
-      <c r="Y17" s="3">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="Z17" s="3">
-        <f t="shared" si="5"/>
-        <v>0.1271186440677966</v>
-      </c>
-      <c r="AA17" s="3">
-        <f t="shared" si="6"/>
-        <v>0.1271186440677966</v>
-      </c>
-      <c r="AB17" s="3">
-        <f t="shared" si="9"/>
-        <v>0.1271186440677966</v>
-      </c>
-      <c r="AC17" s="3">
-        <f t="shared" si="10"/>
-        <v>6.3559322033898302E-2</v>
-      </c>
-      <c r="AD17" s="3">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="AE17" s="8">
-        <f t="shared" si="12"/>
-        <v>6.3559322033898302E-2</v>
-      </c>
-      <c r="AF17" s="3">
-        <f t="shared" si="7"/>
-        <v>6.3559322033898302E-2</v>
-      </c>
-      <c r="AG17" s="3">
-        <f t="shared" si="8"/>
-        <v>6.3559322033898302E-2</v>
-      </c>
+      <c r="X17" s="3"/>
+      <c r="Y17" s="3"/>
+      <c r="Z17" s="3"/>
+      <c r="AA17" s="3"/>
+      <c r="AB17" s="3"/>
+      <c r="AC17" s="3"/>
+      <c r="AD17" s="3"/>
+      <c r="AE17" s="8"/>
+      <c r="AF17" s="3"/>
+      <c r="AG17" s="3"/>
       <c r="AH17" s="2"/>
     </row>
     <row r="18" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="D18" s="2">
         <v>31</v>
@@ -3165,57 +2690,27 @@
       <c r="W18" s="2">
         <v>3</v>
       </c>
-      <c r="X18" s="3">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="Y18" s="3">
-        <f t="shared" si="4"/>
-        <v>0.14285714285714285</v>
-      </c>
-      <c r="Z18" s="3">
-        <f t="shared" si="5"/>
-        <v>0.14285714285714285</v>
-      </c>
-      <c r="AA18" s="3">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="AB18" s="3">
-        <f t="shared" si="9"/>
-        <v>0.14285714285714285</v>
-      </c>
-      <c r="AC18" s="3">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="AD18" s="3">
-        <f t="shared" si="11"/>
-        <v>5.7142857142857148E-2</v>
-      </c>
-      <c r="AE18" s="8">
-        <f t="shared" si="12"/>
-        <v>5.7142857142857148E-2</v>
-      </c>
-      <c r="AF18" s="3">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="AG18" s="3">
-        <f t="shared" si="8"/>
-        <v>5.7142857142857148E-2</v>
-      </c>
+      <c r="X18" s="3"/>
+      <c r="Y18" s="3"/>
+      <c r="Z18" s="3"/>
+      <c r="AA18" s="3"/>
+      <c r="AB18" s="3"/>
+      <c r="AC18" s="3"/>
+      <c r="AD18" s="3"/>
+      <c r="AE18" s="8"/>
+      <c r="AF18" s="3"/>
+      <c r="AG18" s="3"/>
       <c r="AH18" s="2"/>
     </row>
     <row r="19" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="D19" s="2">
         <v>25</v>
@@ -3280,57 +2775,27 @@
       <c r="W19" s="2">
         <v>95</v>
       </c>
-      <c r="X19" s="3">
-        <f t="shared" si="3"/>
-        <v>0.18614270941054811</v>
-      </c>
-      <c r="Y19" s="3">
-        <f t="shared" si="4"/>
-        <v>0.18614270941054811</v>
-      </c>
-      <c r="Z19" s="3">
-        <f t="shared" si="5"/>
-        <v>0.37228541882109623</v>
-      </c>
-      <c r="AA19" s="3">
-        <f t="shared" si="6"/>
-        <v>0.18614270941054811</v>
-      </c>
-      <c r="AB19" s="3">
-        <f t="shared" si="9"/>
-        <v>0.37228541882109623</v>
-      </c>
-      <c r="AC19" s="3">
-        <f t="shared" si="10"/>
-        <v>0.1954498448810755</v>
-      </c>
-      <c r="AD19" s="3">
-        <f t="shared" si="11"/>
-        <v>0.1489141675284385</v>
-      </c>
-      <c r="AE19" s="8">
-        <f t="shared" si="12"/>
-        <v>0.34436401240951403</v>
-      </c>
-      <c r="AF19" s="3">
-        <f t="shared" si="7"/>
-        <v>0.1954498448810755</v>
-      </c>
-      <c r="AG19" s="3">
-        <f t="shared" si="8"/>
-        <v>0.34436401240951403</v>
-      </c>
+      <c r="X19" s="3"/>
+      <c r="Y19" s="3"/>
+      <c r="Z19" s="3"/>
+      <c r="AA19" s="3"/>
+      <c r="AB19" s="3"/>
+      <c r="AC19" s="3"/>
+      <c r="AD19" s="3"/>
+      <c r="AE19" s="8"/>
+      <c r="AF19" s="3"/>
+      <c r="AG19" s="3"/>
       <c r="AH19" s="2"/>
     </row>
     <row r="20" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="D20" s="2">
         <v>28</v>
@@ -3395,57 +2860,27 @@
       <c r="W20" s="2">
         <v>53</v>
       </c>
-      <c r="X20" s="3">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="Y20" s="3">
-        <f t="shared" si="4"/>
-        <v>0.12032085561497326</v>
-      </c>
-      <c r="Z20" s="3">
-        <f t="shared" si="5"/>
-        <v>0.12032085561497326</v>
-      </c>
-      <c r="AA20" s="3">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="AB20" s="3">
-        <f t="shared" si="9"/>
-        <v>0.12032085561497326</v>
-      </c>
-      <c r="AC20" s="3">
-        <f t="shared" si="10"/>
-        <v>7.2192513368983954E-2</v>
-      </c>
-      <c r="AD20" s="3">
-        <f t="shared" si="11"/>
-        <v>3.6096256684491977E-2</v>
-      </c>
-      <c r="AE20" s="8">
-        <f t="shared" si="12"/>
-        <v>0.10828877005347591</v>
-      </c>
-      <c r="AF20" s="3">
-        <f t="shared" si="7"/>
-        <v>7.2192513368983954E-2</v>
-      </c>
-      <c r="AG20" s="3">
-        <f t="shared" si="8"/>
-        <v>0.10828877005347591</v>
-      </c>
+      <c r="X20" s="3"/>
+      <c r="Y20" s="3"/>
+      <c r="Z20" s="3"/>
+      <c r="AA20" s="3"/>
+      <c r="AB20" s="3"/>
+      <c r="AC20" s="3"/>
+      <c r="AD20" s="3"/>
+      <c r="AE20" s="8"/>
+      <c r="AF20" s="3"/>
+      <c r="AG20" s="3"/>
       <c r="AH20" s="2"/>
     </row>
     <row r="21" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="D21" s="2">
         <v>19</v>
@@ -3510,57 +2945,27 @@
       <c r="W21" s="2">
         <v>33</v>
       </c>
-      <c r="X21" s="3">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="Y21" s="3">
-        <f t="shared" si="4"/>
-        <v>0.13657056145675267</v>
-      </c>
-      <c r="Z21" s="3">
-        <f t="shared" si="5"/>
-        <v>0.13657056145675267</v>
-      </c>
-      <c r="AA21" s="3">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="AB21" s="3">
-        <f t="shared" si="9"/>
-        <v>0.13657056145675267</v>
-      </c>
-      <c r="AC21" s="3">
-        <f t="shared" si="10"/>
-        <v>1.3657056145675266E-2</v>
-      </c>
-      <c r="AD21" s="3">
-        <f t="shared" si="11"/>
-        <v>5.4628224582701064E-2</v>
-      </c>
-      <c r="AE21" s="8">
-        <f t="shared" si="12"/>
-        <v>6.8285280728376335E-2</v>
-      </c>
-      <c r="AF21" s="3">
-        <f t="shared" si="7"/>
-        <v>1.3657056145675266E-2</v>
-      </c>
-      <c r="AG21" s="3">
-        <f t="shared" si="8"/>
-        <v>6.8285280728376335E-2</v>
-      </c>
+      <c r="X21" s="3"/>
+      <c r="Y21" s="3"/>
+      <c r="Z21" s="3"/>
+      <c r="AA21" s="3"/>
+      <c r="AB21" s="3"/>
+      <c r="AC21" s="3"/>
+      <c r="AD21" s="3"/>
+      <c r="AE21" s="8"/>
+      <c r="AF21" s="3"/>
+      <c r="AG21" s="3"/>
       <c r="AH21" s="2"/>
     </row>
     <row r="22" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="D22" s="2">
         <v>38</v>
@@ -3625,57 +3030,27 @@
       <c r="W22" s="2">
         <v>1</v>
       </c>
-      <c r="X22" s="3">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="Y22" s="3">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="Z22" s="3">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="AA22" s="3">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="AB22" s="3">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="AC22" s="3">
-        <f t="shared" si="10"/>
-        <v>1.2278308321964531E-2</v>
-      </c>
-      <c r="AD22" s="3">
-        <f t="shared" si="11"/>
-        <v>1.2278308321964531E-2</v>
-      </c>
-      <c r="AE22" s="8">
-        <f t="shared" si="12"/>
-        <v>2.4556616643929063E-2</v>
-      </c>
-      <c r="AF22" s="3">
-        <f t="shared" si="7"/>
-        <v>1.2278308321964531E-2</v>
-      </c>
-      <c r="AG22" s="3">
-        <f t="shared" si="8"/>
-        <v>2.4556616643929063E-2</v>
-      </c>
+      <c r="X22" s="3"/>
+      <c r="Y22" s="3"/>
+      <c r="Z22" s="3"/>
+      <c r="AA22" s="3"/>
+      <c r="AB22" s="3"/>
+      <c r="AC22" s="3"/>
+      <c r="AD22" s="3"/>
+      <c r="AE22" s="8"/>
+      <c r="AF22" s="3"/>
+      <c r="AG22" s="3"/>
       <c r="AH22" s="2"/>
     </row>
     <row r="23" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="D23" s="2">
         <v>30</v>
@@ -3740,57 +3115,27 @@
       <c r="W23" s="2">
         <v>0</v>
       </c>
-      <c r="X23" s="3">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="Y23" s="3">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="Z23" s="3">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="AA23" s="3">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="AB23" s="3">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="AC23" s="3">
-        <f t="shared" si="10"/>
-        <v>3.8793103448275863E-2</v>
-      </c>
-      <c r="AD23" s="3">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="AE23" s="8">
-        <f t="shared" si="12"/>
-        <v>3.8793103448275863E-2</v>
-      </c>
-      <c r="AF23" s="3">
-        <f t="shared" si="7"/>
-        <v>3.8793103448275863E-2</v>
-      </c>
-      <c r="AG23" s="3">
-        <f t="shared" si="8"/>
-        <v>3.8793103448275863E-2</v>
-      </c>
+      <c r="X23" s="3"/>
+      <c r="Y23" s="3"/>
+      <c r="Z23" s="3"/>
+      <c r="AA23" s="3"/>
+      <c r="AB23" s="3"/>
+      <c r="AC23" s="3"/>
+      <c r="AD23" s="3"/>
+      <c r="AE23" s="8"/>
+      <c r="AF23" s="3"/>
+      <c r="AG23" s="3"/>
       <c r="AH23" s="2"/>
     </row>
     <row r="24" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="D24" s="2">
         <v>29</v>
@@ -3855,57 +3200,27 @@
       <c r="W24" s="2">
         <v>18</v>
       </c>
-      <c r="X24" s="3">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="Y24" s="3">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="Z24" s="3">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="AA24" s="3">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="AB24" s="3">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="AC24" s="3">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="AD24" s="3">
-        <f t="shared" si="11"/>
-        <v>5.4216867469879519E-2</v>
-      </c>
-      <c r="AE24" s="8">
-        <f t="shared" si="12"/>
-        <v>5.4216867469879519E-2</v>
-      </c>
-      <c r="AF24" s="3">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="AG24" s="3">
-        <f t="shared" si="8"/>
-        <v>5.4216867469879519E-2</v>
-      </c>
+      <c r="X24" s="3"/>
+      <c r="Y24" s="3"/>
+      <c r="Z24" s="3"/>
+      <c r="AA24" s="3"/>
+      <c r="AB24" s="3"/>
+      <c r="AC24" s="3"/>
+      <c r="AD24" s="3"/>
+      <c r="AE24" s="8"/>
+      <c r="AF24" s="3"/>
+      <c r="AG24" s="3"/>
       <c r="AH24" s="2"/>
     </row>
     <row r="25" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="D25" s="2">
         <v>35</v>
@@ -3970,57 +3285,27 @@
       <c r="W25" s="2">
         <v>36</v>
       </c>
-      <c r="X25" s="3">
-        <f t="shared" si="3"/>
-        <v>0.569620253164557</v>
-      </c>
-      <c r="Y25" s="3">
-        <f t="shared" si="4"/>
-        <v>0.189873417721519</v>
-      </c>
-      <c r="Z25" s="3">
-        <f t="shared" si="5"/>
-        <v>0.759493670886076</v>
-      </c>
-      <c r="AA25" s="3">
-        <f t="shared" si="6"/>
-        <v>0.569620253164557</v>
-      </c>
-      <c r="AB25" s="3">
-        <f t="shared" si="9"/>
-        <v>0.759493670886076</v>
-      </c>
-      <c r="AC25" s="3">
-        <f t="shared" si="10"/>
-        <v>0.2848101265822785</v>
-      </c>
-      <c r="AD25" s="3">
-        <f t="shared" si="11"/>
-        <v>9.49367088607595E-2</v>
-      </c>
-      <c r="AE25" s="8">
-        <f t="shared" si="12"/>
-        <v>0.379746835443038</v>
-      </c>
-      <c r="AF25" s="3">
-        <f t="shared" si="7"/>
-        <v>0.2848101265822785</v>
-      </c>
-      <c r="AG25" s="3">
-        <f t="shared" si="8"/>
-        <v>0.379746835443038</v>
-      </c>
+      <c r="X25" s="3"/>
+      <c r="Y25" s="3"/>
+      <c r="Z25" s="3"/>
+      <c r="AA25" s="3"/>
+      <c r="AB25" s="3"/>
+      <c r="AC25" s="3"/>
+      <c r="AD25" s="3"/>
+      <c r="AE25" s="8"/>
+      <c r="AF25" s="3"/>
+      <c r="AG25" s="3"/>
       <c r="AH25" s="2"/>
     </row>
     <row r="26" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="D26" s="2">
         <v>24</v>
@@ -4085,57 +3370,27 @@
       <c r="W26" s="2">
         <v>13</v>
       </c>
-      <c r="X26" s="3">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="Y26" s="3">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="Z26" s="3">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="AA26" s="3">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="AB26" s="3">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="AC26" s="3">
-        <f t="shared" si="10"/>
-        <v>3.3333333333333333E-2</v>
-      </c>
-      <c r="AD26" s="3">
-        <f t="shared" si="11"/>
-        <v>3.3333333333333333E-2</v>
-      </c>
-      <c r="AE26" s="8">
-        <f t="shared" si="12"/>
-        <v>6.6666666666666666E-2</v>
-      </c>
-      <c r="AF26" s="3">
-        <f t="shared" si="7"/>
-        <v>3.3333333333333333E-2</v>
-      </c>
-      <c r="AG26" s="3">
-        <f t="shared" si="8"/>
-        <v>6.6666666666666666E-2</v>
-      </c>
+      <c r="X26" s="3"/>
+      <c r="Y26" s="3"/>
+      <c r="Z26" s="3"/>
+      <c r="AA26" s="3"/>
+      <c r="AB26" s="3"/>
+      <c r="AC26" s="3"/>
+      <c r="AD26" s="3"/>
+      <c r="AE26" s="8"/>
+      <c r="AF26" s="3"/>
+      <c r="AG26" s="3"/>
       <c r="AH26" s="2"/>
     </row>
     <row r="27" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="D27" s="2">
         <v>18</v>
@@ -4200,57 +3455,27 @@
       <c r="W27" s="2">
         <v>11</v>
       </c>
-      <c r="X27" s="3">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="Y27" s="3">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="Z27" s="3">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="AA27" s="3">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="AB27" s="3">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="AC27" s="3">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="AD27" s="3">
-        <f t="shared" si="11"/>
-        <v>0.04</v>
-      </c>
-      <c r="AE27" s="8">
-        <f t="shared" si="12"/>
-        <v>0.04</v>
-      </c>
-      <c r="AF27" s="3">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="AG27" s="3">
-        <f t="shared" si="8"/>
-        <v>0.04</v>
-      </c>
+      <c r="X27" s="3"/>
+      <c r="Y27" s="3"/>
+      <c r="Z27" s="3"/>
+      <c r="AA27" s="3"/>
+      <c r="AB27" s="3"/>
+      <c r="AC27" s="3"/>
+      <c r="AD27" s="3"/>
+      <c r="AE27" s="8"/>
+      <c r="AF27" s="3"/>
+      <c r="AG27" s="3"/>
       <c r="AH27" s="2"/>
     </row>
     <row r="28" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="D28" s="2">
         <v>38</v>
@@ -4315,57 +3540,27 @@
       <c r="W28" s="2">
         <v>14</v>
       </c>
-      <c r="X28" s="3">
-        <f t="shared" si="3"/>
-        <v>0.69767441860465118</v>
-      </c>
-      <c r="Y28" s="3">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="Z28" s="3">
-        <f t="shared" si="5"/>
-        <v>0.69767441860465118</v>
-      </c>
-      <c r="AA28" s="3">
-        <f t="shared" si="6"/>
-        <v>0.69767441860465118</v>
-      </c>
-      <c r="AB28" s="3">
-        <f t="shared" si="9"/>
-        <v>0.69767441860465118</v>
-      </c>
-      <c r="AC28" s="3">
-        <f t="shared" si="10"/>
-        <v>0.34883720930232559</v>
-      </c>
-      <c r="AD28" s="3">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="AE28" s="8">
-        <f t="shared" si="12"/>
-        <v>0.34883720930232559</v>
-      </c>
-      <c r="AF28" s="3">
-        <f t="shared" si="7"/>
-        <v>0.34883720930232559</v>
-      </c>
-      <c r="AG28" s="3">
-        <f t="shared" si="8"/>
-        <v>0.34883720930232559</v>
-      </c>
+      <c r="X28" s="3"/>
+      <c r="Y28" s="3"/>
+      <c r="Z28" s="3"/>
+      <c r="AA28" s="3"/>
+      <c r="AB28" s="3"/>
+      <c r="AC28" s="3"/>
+      <c r="AD28" s="3"/>
+      <c r="AE28" s="8"/>
+      <c r="AF28" s="3"/>
+      <c r="AG28" s="3"/>
       <c r="AH28" s="2"/>
     </row>
     <row r="29" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="D29" s="2">
         <v>22</v>
@@ -4430,57 +3625,27 @@
       <c r="W29" s="2">
         <v>15</v>
       </c>
-      <c r="X29" s="3">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="Y29" s="3">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="Z29" s="3">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="AA29" s="3">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="AB29" s="3">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="AC29" s="3">
-        <f t="shared" si="10"/>
-        <v>0.20224719101123595</v>
-      </c>
-      <c r="AD29" s="3">
-        <f t="shared" si="11"/>
-        <v>0.10112359550561797</v>
-      </c>
-      <c r="AE29" s="8">
-        <f t="shared" si="12"/>
-        <v>0.30337078651685395</v>
-      </c>
-      <c r="AF29" s="3">
-        <f t="shared" si="7"/>
-        <v>0.20224719101123595</v>
-      </c>
-      <c r="AG29" s="3">
-        <f t="shared" si="8"/>
-        <v>0.30337078651685395</v>
-      </c>
+      <c r="X29" s="3"/>
+      <c r="Y29" s="3"/>
+      <c r="Z29" s="3"/>
+      <c r="AA29" s="3"/>
+      <c r="AB29" s="3"/>
+      <c r="AC29" s="3"/>
+      <c r="AD29" s="3"/>
+      <c r="AE29" s="8"/>
+      <c r="AF29" s="3"/>
+      <c r="AG29" s="3"/>
       <c r="AH29" s="2"/>
     </row>
     <row r="30" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="D30" s="2">
         <v>19</v>
@@ -4545,57 +3710,27 @@
       <c r="W30" s="2">
         <v>15</v>
       </c>
-      <c r="X30" s="3">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="Y30" s="3">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="Z30" s="3">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="AA30" s="3">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="AB30" s="3">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="AC30" s="3">
-        <f t="shared" si="10"/>
-        <v>0.7021276595744681</v>
-      </c>
-      <c r="AD30" s="3">
-        <f t="shared" si="11"/>
-        <v>0.25531914893617025</v>
-      </c>
-      <c r="AE30" s="8">
-        <f t="shared" si="12"/>
-        <v>0.95744680851063835</v>
-      </c>
-      <c r="AF30" s="3">
-        <f t="shared" si="7"/>
-        <v>0.7021276595744681</v>
-      </c>
-      <c r="AG30" s="3">
-        <f t="shared" si="8"/>
-        <v>0.95744680851063835</v>
-      </c>
+      <c r="X30" s="3"/>
+      <c r="Y30" s="3"/>
+      <c r="Z30" s="3"/>
+      <c r="AA30" s="3"/>
+      <c r="AB30" s="3"/>
+      <c r="AC30" s="3"/>
+      <c r="AD30" s="3"/>
+      <c r="AE30" s="8"/>
+      <c r="AF30" s="3"/>
+      <c r="AG30" s="3"/>
       <c r="AH30" s="2"/>
     </row>
     <row r="31" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="D31" s="2">
         <v>27</v>
@@ -4660,57 +3795,27 @@
       <c r="W31" s="2">
         <v>1</v>
       </c>
-      <c r="X31" s="3">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="Y31" s="3">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="Z31" s="3">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="AA31" s="3">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="AB31" s="3">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="AC31" s="3">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="AD31" s="3">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="AE31" s="8">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="AF31" s="3">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="AG31" s="3">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
+      <c r="X31" s="3"/>
+      <c r="Y31" s="3"/>
+      <c r="Z31" s="3"/>
+      <c r="AA31" s="3"/>
+      <c r="AB31" s="3"/>
+      <c r="AC31" s="3"/>
+      <c r="AD31" s="3"/>
+      <c r="AE31" s="8"/>
+      <c r="AF31" s="3"/>
+      <c r="AG31" s="3"/>
       <c r="AH31" s="2"/>
     </row>
     <row r="32" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="D32" s="2">
         <v>25</v>
@@ -4775,57 +3880,27 @@
       <c r="W32" s="2">
         <v>9</v>
       </c>
-      <c r="X32" s="3">
-        <f t="shared" si="3"/>
-        <v>2.1686746987951806</v>
-      </c>
-      <c r="Y32" s="3">
-        <f>J32/$H32</f>
-        <v>3.2530120481927707</v>
-      </c>
-      <c r="Z32" s="3">
-        <f t="shared" si="5"/>
-        <v>5.4216867469879517</v>
-      </c>
-      <c r="AA32" s="3">
-        <f t="shared" si="6"/>
-        <v>2.1686746987951806</v>
-      </c>
-      <c r="AB32" s="3">
-        <f>(K32-M32)/$H32</f>
-        <v>5.4216867469879517</v>
-      </c>
-      <c r="AC32" s="3">
-        <f t="shared" si="10"/>
-        <v>0.86746987951807231</v>
-      </c>
-      <c r="AD32" s="3">
-        <f t="shared" si="11"/>
-        <v>0.86746987951807231</v>
-      </c>
-      <c r="AE32" s="8">
-        <f t="shared" si="12"/>
-        <v>1.7349397590361446</v>
-      </c>
-      <c r="AF32" s="3">
-        <f t="shared" si="7"/>
-        <v>0.86746987951807231</v>
-      </c>
-      <c r="AG32" s="3">
-        <f t="shared" si="8"/>
-        <v>1.7349397590361446</v>
-      </c>
+      <c r="X32" s="3"/>
+      <c r="Y32" s="3"/>
+      <c r="Z32" s="3"/>
+      <c r="AA32" s="3"/>
+      <c r="AB32" s="3"/>
+      <c r="AC32" s="3"/>
+      <c r="AD32" s="3"/>
+      <c r="AE32" s="8"/>
+      <c r="AF32" s="3"/>
+      <c r="AG32" s="3"/>
       <c r="AH32" s="2"/>
     </row>
     <row r="33" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="D33" s="2">
         <v>20</v>
@@ -4890,57 +3965,27 @@
       <c r="W33" s="2">
         <v>11</v>
       </c>
-      <c r="X33" s="3">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="Y33" s="3">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="Z33" s="3">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="AA33" s="3">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="AB33" s="3">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="AC33" s="3">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="AD33" s="3">
-        <f t="shared" si="11"/>
-        <v>0.13636363636363638</v>
-      </c>
-      <c r="AE33" s="8">
-        <f t="shared" si="12"/>
-        <v>0.13636363636363638</v>
-      </c>
-      <c r="AF33" s="3">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="AG33" s="3">
-        <f t="shared" si="8"/>
-        <v>0.13636363636363638</v>
-      </c>
+      <c r="X33" s="3"/>
+      <c r="Y33" s="3"/>
+      <c r="Z33" s="3"/>
+      <c r="AA33" s="3"/>
+      <c r="AB33" s="3"/>
+      <c r="AC33" s="3"/>
+      <c r="AD33" s="3"/>
+      <c r="AE33" s="8"/>
+      <c r="AF33" s="3"/>
+      <c r="AG33" s="3"/>
       <c r="AH33" s="2"/>
     </row>
     <row r="34" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="D34" s="2">
         <v>32</v>
@@ -5005,57 +4050,27 @@
       <c r="W34" s="2">
         <v>1</v>
       </c>
-      <c r="X34" s="3">
-        <f t="shared" si="3"/>
-        <v>2.5</v>
-      </c>
-      <c r="Y34" s="3">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="Z34" s="3">
-        <f t="shared" si="5"/>
-        <v>2.5</v>
-      </c>
-      <c r="AA34" s="3">
-        <f t="shared" si="6"/>
-        <v>2.5</v>
-      </c>
-      <c r="AB34" s="3">
-        <f t="shared" si="9"/>
-        <v>2.5</v>
-      </c>
-      <c r="AC34" s="3">
-        <f t="shared" si="10"/>
-        <v>0.25</v>
-      </c>
-      <c r="AD34" s="3">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="AE34" s="8">
-        <f t="shared" si="12"/>
-        <v>0.25</v>
-      </c>
-      <c r="AF34" s="3">
-        <f t="shared" si="7"/>
-        <v>0.25</v>
-      </c>
-      <c r="AG34" s="3">
-        <f t="shared" si="8"/>
-        <v>0.25</v>
-      </c>
+      <c r="X34" s="3"/>
+      <c r="Y34" s="3"/>
+      <c r="Z34" s="3"/>
+      <c r="AA34" s="3"/>
+      <c r="AB34" s="3"/>
+      <c r="AC34" s="3"/>
+      <c r="AD34" s="3"/>
+      <c r="AE34" s="8"/>
+      <c r="AF34" s="3"/>
+      <c r="AG34" s="3"/>
       <c r="AH34" s="2"/>
     </row>
     <row r="35" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="D35" s="2">
         <v>34</v>
@@ -5097,13 +4112,13 @@
     </row>
     <row r="36" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="D36" s="2">
         <v>19</v>
@@ -5145,13 +4160,13 @@
     </row>
     <row r="37" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="D37" s="2">
         <v>25</v>
@@ -5193,13 +4208,13 @@
     </row>
     <row r="38" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="D38" s="2">
         <v>36</v>
@@ -5241,13 +4256,13 @@
     </row>
     <row r="39" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="D39" s="2">
         <v>20</v>
@@ -5289,13 +4304,13 @@
     </row>
     <row r="40" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="D40" s="2">
         <v>21</v>
@@ -5336,130 +4351,43 @@
       <c r="AH40" s="2"/>
     </row>
     <row r="41" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A41" s="1" t="s">
-        <v>73</v>
-      </c>
+      <c r="A41" s="1"/>
       <c r="B41" s="2"/>
       <c r="C41" s="2"/>
-      <c r="D41" s="4">
-        <f>AVERAGE(D3:D40)</f>
-        <v>26.736842105263158</v>
-      </c>
-      <c r="E41" s="2">
-        <v>38</v>
-      </c>
-      <c r="F41" s="4">
-        <f>SUM(F3:F40)</f>
-        <v>418</v>
-      </c>
-      <c r="G41" s="2">
-        <f>E41*F41</f>
-        <v>15884</v>
-      </c>
-      <c r="H41" s="2">
-        <v>38</v>
-      </c>
-      <c r="I41" s="2">
-        <f>SUM(I3:I40)</f>
-        <v>62</v>
-      </c>
-      <c r="J41" s="2">
-        <f t="shared" ref="J41:Q41" si="13">SUM(J3:J40)</f>
-        <v>47</v>
-      </c>
-      <c r="K41" s="2">
-        <f t="shared" si="13"/>
-        <v>109</v>
-      </c>
-      <c r="L41" s="2">
-        <f t="shared" si="13"/>
-        <v>58</v>
-      </c>
-      <c r="M41" s="2">
-        <f t="shared" si="13"/>
-        <v>4</v>
-      </c>
-      <c r="N41" s="2">
-        <f t="shared" si="13"/>
-        <v>4</v>
-      </c>
-      <c r="O41" s="2">
-        <f t="shared" si="13"/>
-        <v>79</v>
-      </c>
-      <c r="P41" s="2">
-        <f t="shared" si="13"/>
-        <v>9</v>
-      </c>
-      <c r="Q41" s="2">
-        <f t="shared" si="13"/>
-        <v>50.900000000000006</v>
-      </c>
-      <c r="R41" s="2">
-        <f t="shared" ref="R41" si="14">SUM(R3:R40)</f>
-        <v>47.800000000000004</v>
-      </c>
-      <c r="S41" s="2">
-        <f t="shared" ref="S41" si="15">SUM(S3:S40)</f>
-        <v>37.800000000000004</v>
-      </c>
-      <c r="T41" s="2">
-        <f t="shared" ref="T41" si="16">SUM(T3:T40)</f>
-        <v>85.600000000000009</v>
-      </c>
-      <c r="U41" s="2">
-        <f t="shared" ref="U41" si="17">SUM(U3:U40)</f>
-        <v>773</v>
-      </c>
-      <c r="V41" s="2">
-        <f t="shared" ref="V41" si="18">SUM(V3:V40)</f>
-        <v>1625</v>
-      </c>
-      <c r="W41" s="2">
-        <f t="shared" ref="W41" si="19">SUM(W3:W40)</f>
-        <v>1606</v>
-      </c>
-      <c r="X41" s="3">
-        <f>I41/$H$41</f>
-        <v>1.631578947368421</v>
-      </c>
-      <c r="Y41" s="3">
-        <f>J41/$H$41</f>
-        <v>1.236842105263158</v>
-      </c>
-      <c r="Z41" s="3">
-        <f t="shared" ref="Z41:AA41" si="20">K41/$H$41</f>
-        <v>2.8684210526315788</v>
-      </c>
-      <c r="AA41" s="3">
-        <f t="shared" si="20"/>
-        <v>1.5263157894736843</v>
-      </c>
-      <c r="AB41" s="3">
-        <f>(K41-M41)/H41</f>
-        <v>2.763157894736842</v>
-      </c>
-      <c r="AC41" s="3">
-        <f>Q41/$H$41</f>
-        <v>1.3394736842105264</v>
-      </c>
-      <c r="AD41" s="3">
-        <f>S41/$H$41</f>
-        <v>0.99473684210526325</v>
-      </c>
-      <c r="AE41" s="3">
-        <f>(Q41+S41)/$H$41</f>
-        <v>2.3342105263157897</v>
-      </c>
-      <c r="AF41" s="3">
-        <f>R41/$H$41</f>
-        <v>1.2578947368421054</v>
-      </c>
-      <c r="AG41" s="3">
-        <f>T41/$H$41</f>
-        <v>2.2526315789473688</v>
-      </c>
+      <c r="D41" s="4"/>
+      <c r="E41" s="2"/>
+      <c r="F41" s="4"/>
+      <c r="G41" s="2"/>
+      <c r="H41" s="2"/>
+      <c r="I41" s="2"/>
+      <c r="J41" s="2"/>
+      <c r="K41" s="2"/>
+      <c r="L41" s="2"/>
+      <c r="M41" s="2"/>
+      <c r="N41" s="2"/>
+      <c r="O41" s="2"/>
+      <c r="P41" s="2"/>
+      <c r="Q41" s="2"/>
+      <c r="R41" s="2"/>
+      <c r="S41" s="2"/>
+      <c r="T41" s="2"/>
+      <c r="U41" s="2"/>
+      <c r="V41" s="2"/>
+      <c r="W41" s="2"/>
+      <c r="X41" s="3"/>
+      <c r="Y41" s="3"/>
+      <c r="Z41" s="3"/>
+      <c r="AA41" s="3"/>
+      <c r="AB41" s="3"/>
+      <c r="AC41" s="3"/>
+      <c r="AD41" s="3"/>
+      <c r="AE41" s="3"/>
+      <c r="AF41" s="3"/>
+      <c r="AG41" s="3"/>
       <c r="AH41" s="2"/>
+    </row>
+    <row r="42" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="F42" s="13"/>
     </row>
   </sheetData>
   <mergeCells count="6">
@@ -5471,5 +4399,6 @@
     <mergeCell ref="U1:W1"/>
   </mergeCells>
   <pageMargins left="0.78740157499999996" right="0.78740157499999996" top="0.984251969" bottom="0.984251969" header="0.4921259845" footer="0.4921259845"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>